--- a/organized/allDataAnalysis1.xlsx
+++ b/organized/allDataAnalysis1.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Wu\Documents\GitHub\PredictionMarket\organized\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14625" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Aversion No MANIPULATORS" sheetId="2" r:id="rId1"/>
     <sheet name="allDataAnalysis1.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>risk: 0</t>
   </si>
@@ -54,12 +60,33 @@
   <si>
     <t>risk: 1.0</t>
   </si>
+  <si>
+    <t>Manipulators</t>
+  </si>
+  <si>
+    <t>RiskAversion</t>
+  </si>
+  <si>
+    <t>R-Squared Value</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Buyer/Seller Ratio</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +106,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,8 +140,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -116,6 +159,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -183,7 +233,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="30.0"/>
+            <c:forward val="30"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -194,244 +244,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.6725670908738</c:v>
+                  <c:v>44.672567090873798</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.65981152401</c:v>
+                  <c:v>37.659811524010003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>51.4999176477851</c:v>
+                  <c:v>51.499917647785097</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.2119593582001</c:v>
+                  <c:v>52.211959358200097</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.5525877734043</c:v>
+                  <c:v>51.552587773404298</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.6509093942098</c:v>
+                  <c:v>49.650909394209798</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.7296542418072</c:v>
+                  <c:v>46.729654241807197</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49.1285230784519</c:v>
+                  <c:v>49.128523078451899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46.6424829171278</c:v>
+                  <c:v>46.642482917127801</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>38.6282078808674</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.2492006932488</c:v>
+                  <c:v>38.249200693248802</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.6599435536304</c:v>
+                  <c:v>44.659943553630399</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>47.006843350358</c:v>
+                  <c:v>47.006843350357997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.8819679174433</c:v>
+                  <c:v>49.881967917443298</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.1953141744921</c:v>
+                  <c:v>44.195314174492097</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.4205031668286</c:v>
+                  <c:v>53.420503166828603</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.4711265310964</c:v>
+                  <c:v>50.471126531096402</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.6865433113335</c:v>
+                  <c:v>46.686543311333502</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.7235549087677</c:v>
+                  <c:v>52.723554908767703</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.8774034093759</c:v>
+                  <c:v>62.877403409375901</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.8883791555509</c:v>
+                  <c:v>49.888379155550901</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51.5060366175177</c:v>
+                  <c:v>51.506036617517701</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.2184674104998</c:v>
+                  <c:v>53.218467410499798</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.217216910398</c:v>
+                  <c:v>53.217216910398001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.6194371895895</c:v>
+                  <c:v>53.619437189589497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,244 +493,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +757,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="30.0"/>
+            <c:forward val="30"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -718,244 +768,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>49.9999479378793</c:v>
+                  <c:v>49.999947937879298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68.7515375505902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.9946543215452</c:v>
+                  <c:v>49.994654321545198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0093044533262</c:v>
+                  <c:v>50.009304453326202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33.4450121265761</c:v>
+                  <c:v>33.445012126576103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.0193429967067</c:v>
+                  <c:v>37.019342996706698</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.4627913734677</c:v>
+                  <c:v>51.462791373467702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.1099881342727</c:v>
+                  <c:v>50.109988134272697</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.6725670908738</c:v>
+                  <c:v>44.672567090873798</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.65981152401</c:v>
+                  <c:v>37.659811524010003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.4999176477851</c:v>
+                  <c:v>51.499917647785097</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52.2119593582001</c:v>
+                  <c:v>52.211959358200097</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51.5525877734043</c:v>
+                  <c:v>51.552587773404298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.6509093942098</c:v>
+                  <c:v>49.650909394209798</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.7296542418072</c:v>
+                  <c:v>46.729654241807197</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.1285230784519</c:v>
+                  <c:v>49.128523078451899</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.6424829171278</c:v>
+                  <c:v>46.642482917127801</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.6599435536304</c:v>
+                  <c:v>44.659943553630399</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>47.006843350358</c:v>
+                  <c:v>47.006843350357997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.8819679174433</c:v>
+                  <c:v>49.881967917443298</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.1953141744921</c:v>
+                  <c:v>44.195314174492097</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.4205031668286</c:v>
+                  <c:v>53.420503166828603</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.4711265310964</c:v>
+                  <c:v>50.471126531096402</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.6865433113335</c:v>
+                  <c:v>46.686543311333502</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.7235549087677</c:v>
+                  <c:v>52.723554908767703</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.8774034093759</c:v>
+                  <c:v>62.877403409375901</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.8883791555509</c:v>
+                  <c:v>49.888379155550901</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51.5060366175177</c:v>
+                  <c:v>51.506036617517701</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.2184674104998</c:v>
+                  <c:v>53.218467410499798</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.217216910398</c:v>
+                  <c:v>53.217216910398001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.6194371895895</c:v>
+                  <c:v>53.619437189589497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,244 +1017,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,7 +1281,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="25.0"/>
+            <c:forward val="25"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1242,148 +1292,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.6725670908738</c:v>
+                  <c:v>44.672567090873798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.65981152401</c:v>
+                  <c:v>37.659811524010003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.4999176477851</c:v>
+                  <c:v>51.499917647785097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.2119593582001</c:v>
+                  <c:v>52.211959358200097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.5525877734043</c:v>
+                  <c:v>51.552587773404298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.6509093942098</c:v>
+                  <c:v>49.650909394209798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.7296542418072</c:v>
+                  <c:v>46.729654241807197</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.1285230784519</c:v>
+                  <c:v>49.128523078451899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.6424829171278</c:v>
+                  <c:v>46.642482917127801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.6599435536304</c:v>
+                  <c:v>44.659943553630399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.006843350358</c:v>
+                  <c:v>47.006843350357997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.8819679174433</c:v>
+                  <c:v>49.881967917443298</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.1953141744921</c:v>
+                  <c:v>44.195314174492097</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.4205031668286</c:v>
+                  <c:v>53.420503166828603</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.4711265310964</c:v>
+                  <c:v>50.471126531096402</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.6865433113335</c:v>
+                  <c:v>46.686543311333502</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.7235549087677</c:v>
+                  <c:v>52.723554908767703</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.8774034093759</c:v>
+                  <c:v>62.877403409375901</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.8883791555509</c:v>
+                  <c:v>49.888379155550901</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.5060366175177</c:v>
+                  <c:v>51.506036617517701</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53.2184674104998</c:v>
+                  <c:v>53.218467410499798</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.217216910398</c:v>
+                  <c:v>53.217216910398001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.6194371895895</c:v>
+                  <c:v>53.619437189589497</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49.7354620585807</c:v>
+                  <c:v>49.735462058580701</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.2149360051201</c:v>
+                  <c:v>48.214936005120101</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56.683406269465</c:v>
+                  <c:v>56.683406269465003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>50.0062986048364</c:v>
+                  <c:v>50.006298604836402</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53.7382400492744</c:v>
+                  <c:v>53.738240049274403</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>49.847795413108</c:v>
+                  <c:v>49.847795413108003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>49.6972509607387</c:v>
@@ -1392,94 +1442,94 @@
                   <c:v>49.994340443812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50.0019500761391</c:v>
+                  <c:v>50.001950076139103</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51.3551047737748</c:v>
+                  <c:v>51.355104773774798</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.9557114164088</c:v>
+                  <c:v>49.955711416408803</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>50.0041626448101</c:v>
+                  <c:v>50.004162644810101</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.5196799623269</c:v>
+                  <c:v>50.519679962326897</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>49.9746696258686</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46.5353813092195</c:v>
+                  <c:v>46.535381309219503</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>50.3119421809737</c:v>
+                  <c:v>50.311942180973702</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50.4610833188655</c:v>
+                  <c:v>50.461083318865498</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49.968791461604</c:v>
+                  <c:v>49.968791461603999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>62.8200825085512</c:v>
+                  <c:v>62.820082508551202</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44.6025018675566</c:v>
+                  <c:v>44.602501867556597</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>45.7549501259677</c:v>
+                  <c:v>45.754950125967703</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>55.2595190144813</c:v>
+                  <c:v>55.259519014481299</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>71.4990570575377</c:v>
+                  <c:v>71.499057057537698</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40.7495623467003</c:v>
+                  <c:v>40.749562346700301</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51.467192193016</c:v>
+                  <c:v>51.467192193015997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>74.9406277909381</c:v>
+                  <c:v>74.940627790938095</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>26.8312110777733</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50.0009703712977</c:v>
+                  <c:v>50.000970371297697</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>50.0670295867976</c:v>
+                  <c:v>50.067029586797602</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49.5938998462158</c:v>
+                  <c:v>49.593899846215798</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>51.4093372024933</c:v>
+                  <c:v>51.409337202493298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,244 +1541,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,7 +1805,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35.0"/>
+            <c:forward val="35"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1766,244 +1816,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>59.426733013162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.3116831182929</c:v>
+                  <c:v>50.311683118292898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.9171457941397</c:v>
+                  <c:v>49.917145794139699</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50.0901423808658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.9678802489582</c:v>
+                  <c:v>50.967880248958203</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50.5021087404889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.1687390746799</c:v>
+                  <c:v>48.168739074679898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.1830896395593</c:v>
+                  <c:v>52.183089639559299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.8990594862043</c:v>
+                  <c:v>53.899059486204301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.8170154385444</c:v>
+                  <c:v>52.817015438544402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.0030756573422</c:v>
+                  <c:v>47.003075657342201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.2928655970278</c:v>
+                  <c:v>50.292865597027799</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>50.2088818026862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.7998810975547</c:v>
+                  <c:v>51.799881097554703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.6580620642771</c:v>
+                  <c:v>50.658062064277097</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.7299068671612</c:v>
+                  <c:v>49.729906867161198</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53.7716294190299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>60.4650614471254</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.9980595093807</c:v>
+                  <c:v>51.998059509380703</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>35.6454390722581</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.6431226623581</c:v>
+                  <c:v>53.643122662358103</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43.324912633469</c:v>
+                  <c:v>43.324912633468998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.2494321938743</c:v>
+                  <c:v>55.249432193874298</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>50.4161317247043</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.378202061536</c:v>
+                  <c:v>47.378202061536001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.4058539070082</c:v>
+                  <c:v>52.405853907008201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49.9052859383501</c:v>
+                  <c:v>49.905285938350097</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.4605952170137</c:v>
+                  <c:v>50.460595217013697</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54.8024845529422</c:v>
+                  <c:v>54.802484552942197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49.8770491055471</c:v>
+                  <c:v>49.877049105547101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.8566537023036</c:v>
+                  <c:v>50.856653702303603</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.7452891492546</c:v>
+                  <c:v>51.745289149254603</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.2955280201018</c:v>
+                  <c:v>48.295528020101798</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.6725670908738</c:v>
+                  <c:v>44.672567090873798</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.65981152401</c:v>
+                  <c:v>37.659811524010003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.4999176477851</c:v>
+                  <c:v>51.499917647785097</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52.2119593582001</c:v>
+                  <c:v>52.211959358200097</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51.5525877734043</c:v>
+                  <c:v>51.552587773404298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.6509093942098</c:v>
+                  <c:v>49.650909394209798</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.7296542418072</c:v>
+                  <c:v>46.729654241807197</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.1285230784519</c:v>
+                  <c:v>49.128523078451899</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.6424829171278</c:v>
+                  <c:v>46.642482917127801</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.6599435536304</c:v>
+                  <c:v>44.659943553630399</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>47.006843350358</c:v>
+                  <c:v>47.006843350357997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.8819679174433</c:v>
+                  <c:v>49.881967917443298</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.1953141744921</c:v>
+                  <c:v>44.195314174492097</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.4205031668286</c:v>
+                  <c:v>53.420503166828603</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.4711265310964</c:v>
+                  <c:v>50.471126531096402</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.6865433113335</c:v>
+                  <c:v>46.686543311333502</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.7235549087677</c:v>
+                  <c:v>52.723554908767703</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.8774034093759</c:v>
+                  <c:v>62.877403409375901</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.8883791555509</c:v>
+                  <c:v>49.888379155550901</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51.5060366175177</c:v>
+                  <c:v>51.506036617517701</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.2184674104998</c:v>
+                  <c:v>53.218467410499798</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.217216910398</c:v>
+                  <c:v>53.217216910398001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.6194371895895</c:v>
+                  <c:v>53.619437189589497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,244 +2065,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,7 +2329,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35.0"/>
+            <c:forward val="35"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2290,124 +2340,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.6725670908738</c:v>
+                  <c:v>44.672567090873798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.65981152401</c:v>
+                  <c:v>37.659811524010003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.4999176477851</c:v>
+                  <c:v>51.499917647785097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.2119593582001</c:v>
+                  <c:v>52.211959358200097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.5525877734043</c:v>
+                  <c:v>51.552587773404298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.6509093942098</c:v>
+                  <c:v>49.650909394209798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.7296542418072</c:v>
+                  <c:v>46.729654241807197</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.1285230784519</c:v>
+                  <c:v>49.128523078451899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.6424829171278</c:v>
+                  <c:v>46.642482917127801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.6599435536304</c:v>
+                  <c:v>44.659943553630399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.006843350358</c:v>
+                  <c:v>47.006843350357997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.8819679174433</c:v>
+                  <c:v>49.881967917443298</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.1953141744921</c:v>
+                  <c:v>44.195314174492097</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.4205031668286</c:v>
+                  <c:v>53.420503166828603</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.4711265310964</c:v>
+                  <c:v>50.471126531096402</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.6865433113335</c:v>
+                  <c:v>46.686543311333502</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.7235549087677</c:v>
+                  <c:v>52.723554908767703</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.8774034093759</c:v>
+                  <c:v>62.877403409375901</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.8883791555509</c:v>
+                  <c:v>49.888379155550901</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.5060366175177</c:v>
+                  <c:v>51.506036617517701</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53.2184674104998</c:v>
+                  <c:v>53.218467410499798</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.217216910398</c:v>
+                  <c:v>53.217216910398001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.6194371895895</c:v>
+                  <c:v>53.619437189589497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,124 +2469,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,14 +2601,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134550552"/>
-        <c:axId val="2134553624"/>
+        <c:axId val="1543562704"/>
+        <c:axId val="1543576304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134550552"/>
+        <c:axId val="1543562704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2578,22 +2628,21 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134553624"/>
+        <c:crossAx val="1543576304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134553624"/>
+        <c:axId val="1543576304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2614,21 +2663,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134550552"/>
+        <c:crossAx val="1543562704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2642,7 +2689,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2653,7 +2700,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564071" cy="5821770"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3000,23 +3047,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3033,7 +3080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.41254380287230502</v>
       </c>
@@ -3050,17 +3097,20 @@
         <v>0.25041659936539001</v>
       </c>
     </row>
-    <row r="5" spans="1:80" ht="16" customHeight="1">
+    <row r="5" spans="1:80" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>C4^2</f>
         <v>3.3625201921111181E-2</v>
       </c>
+      <c r="D5">
+        <v>0.10349275326856699</v>
+      </c>
       <c r="E5">
         <f>E4^2</f>
         <v>6.2708473237726256E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -3302,7 +3352,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3544,17 +3594,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.48921993665840902</v>
       </c>
@@ -3588,17 +3638,20 @@
         <v>0.226350335881741</v>
       </c>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>C12^2</f>
         <v>5.6505506812268257E-2</v>
       </c>
+      <c r="D13">
+        <v>3.3736608891314399E-2</v>
+      </c>
       <c r="E13">
         <f>E12^2</f>
         <v>5.1234474553776964E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>49.999947937879298</v>
       </c>
@@ -3840,7 +3893,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4082,17 +4135,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4109,7 +4162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.32642847827635302</v>
       </c>
@@ -4126,17 +4179,20 @@
         <v>0.20174583837198901</v>
       </c>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>C20^2</f>
         <v>3.2473939715739683E-2</v>
       </c>
+      <c r="D21">
+        <v>0.10969569678048501</v>
+      </c>
       <c r="E21">
         <f>E20^2</f>
         <v>4.0701383300416713E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4378,7 +4434,7 @@
         <v>51.409337202493298</v>
       </c>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50</v>
       </c>
@@ -4620,17 +4676,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4647,7 +4703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:80">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.11302868985642101</v>
       </c>
@@ -4664,17 +4720,20 @@
         <v>0.21152970594460399</v>
       </c>
     </row>
-    <row r="29" spans="1:80">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>C28^2</f>
         <v>3.6471466135014853E-3</v>
       </c>
+      <c r="D29">
+        <v>0.59462641370703595</v>
+      </c>
       <c r="E29">
         <f>E28^2</f>
         <v>4.4744816497010634E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:80">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4916,7 +4975,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="31" spans="1:80">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5158,17 +5217,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -5185,7 +5244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.48184987815503499</v>
       </c>
@@ -5202,17 +5261,20 @@
         <v>0.25817210262297602</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>C36^2</f>
         <v>8.3971209808846717E-2</v>
       </c>
+      <c r="D37">
+        <v>6.9718167850879198E-2</v>
+      </c>
       <c r="E37">
         <f>E36^2</f>
         <v>6.6652834572768466E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5334,7 +5396,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
@@ -5464,4 +5526,186 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.3625201921111181E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.10349275326856699</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.2708473237726256E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.6505506812268257E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.3736608891314399E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.1234474553776964E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.2473939715739683E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.10969569678048501</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.0701383300416713E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.6471466135014853E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.59462641370703595</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.4744816497010634E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.3971209808846717E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.9718167850879198E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.6652834572768466E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/organized/allDataAnalysis1.xlsx
+++ b/organized/allDataAnalysis1.xlsx
@@ -2601,11 +2601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1543562704"/>
-        <c:axId val="1543576304"/>
+        <c:axId val="-269245888"/>
+        <c:axId val="-269248064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1543562704"/>
+        <c:axId val="-269245888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2634,12 +2634,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1543576304"/>
+        <c:crossAx val="-269248064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1543576304"/>
+        <c:axId val="-269248064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2669,7 +2669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1543562704"/>
+        <c:crossAx val="-269245888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3048,7 +3048,7 @@
   <dimension ref="A1:CB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5533,7 +5533,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/organized/allDataAnalysis1.xlsx
+++ b/organized/allDataAnalysis1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Wu\Documents\GitHub\PredictionMarket\organized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Documents/networks2/PredictionMarket/organized/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14625" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Aversion No MANIPULATORS" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -205,6 +208,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -233,7 +237,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="30"/>
+            <c:forward val="30.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -244,244 +248,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.672567090873798</c:v>
+                  <c:v>44.6725670908738</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.659811524010003</c:v>
+                  <c:v>37.65981152401</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>51.499917647785097</c:v>
+                  <c:v>51.4999176477851</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.211959358200097</c:v>
+                  <c:v>52.2119593582001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.552587773404298</c:v>
+                  <c:v>51.5525877734043</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.650909394209798</c:v>
+                  <c:v>49.6509093942098</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.729654241807197</c:v>
+                  <c:v>46.7296542418072</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49.128523078451899</c:v>
+                  <c:v>49.1285230784519</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46.642482917127801</c:v>
+                  <c:v>46.6424829171278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>38.6282078808674</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.249200693248802</c:v>
+                  <c:v>38.2492006932488</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.659943553630399</c:v>
+                  <c:v>44.6599435536304</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>47.006843350357997</c:v>
+                  <c:v>47.006843350358</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.881967917443298</c:v>
+                  <c:v>49.8819679174433</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.195314174492097</c:v>
+                  <c:v>44.1953141744921</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.420503166828603</c:v>
+                  <c:v>53.4205031668286</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.471126531096402</c:v>
+                  <c:v>50.4711265310964</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.686543311333502</c:v>
+                  <c:v>46.6865433113335</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.723554908767703</c:v>
+                  <c:v>52.7235549087677</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.877403409375901</c:v>
+                  <c:v>62.8774034093759</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.888379155550901</c:v>
+                  <c:v>49.8883791555509</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51.506036617517701</c:v>
+                  <c:v>51.5060366175177</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.218467410499798</c:v>
+                  <c:v>53.2184674104998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.217216910398001</c:v>
+                  <c:v>53.217216910398</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.619437189589497</c:v>
+                  <c:v>53.6194371895895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,244 +497,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,7 +761,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="30"/>
+            <c:forward val="30.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -768,244 +772,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>49.999947937879298</c:v>
+                  <c:v>49.9999479378793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68.7515375505902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.994654321545198</c:v>
+                  <c:v>49.9946543215452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.009304453326202</c:v>
+                  <c:v>50.0093044533262</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33.445012126576103</c:v>
+                  <c:v>33.4450121265761</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.019342996706698</c:v>
+                  <c:v>37.0193429967067</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.462791373467702</c:v>
+                  <c:v>51.4627913734677</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.109988134272697</c:v>
+                  <c:v>50.1099881342727</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.672567090873798</c:v>
+                  <c:v>44.6725670908738</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.659811524010003</c:v>
+                  <c:v>37.65981152401</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.499917647785097</c:v>
+                  <c:v>51.4999176477851</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52.211959358200097</c:v>
+                  <c:v>52.2119593582001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51.552587773404298</c:v>
+                  <c:v>51.5525877734043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.650909394209798</c:v>
+                  <c:v>49.6509093942098</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.729654241807197</c:v>
+                  <c:v>46.7296542418072</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.128523078451899</c:v>
+                  <c:v>49.1285230784519</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.642482917127801</c:v>
+                  <c:v>46.6424829171278</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.659943553630399</c:v>
+                  <c:v>44.6599435536304</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>47.006843350357997</c:v>
+                  <c:v>47.006843350358</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.881967917443298</c:v>
+                  <c:v>49.8819679174433</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.195314174492097</c:v>
+                  <c:v>44.1953141744921</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.420503166828603</c:v>
+                  <c:v>53.4205031668286</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.471126531096402</c:v>
+                  <c:v>50.4711265310964</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.686543311333502</c:v>
+                  <c:v>46.6865433113335</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.723554908767703</c:v>
+                  <c:v>52.7235549087677</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.877403409375901</c:v>
+                  <c:v>62.8774034093759</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.888379155550901</c:v>
+                  <c:v>49.8883791555509</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51.506036617517701</c:v>
+                  <c:v>51.5060366175177</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.218467410499798</c:v>
+                  <c:v>53.2184674104998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.217216910398001</c:v>
+                  <c:v>53.217216910398</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.619437189589497</c:v>
+                  <c:v>53.6194371895895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,244 +1021,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,7 +1285,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="25"/>
+            <c:forward val="25.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1292,148 +1296,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.672567090873798</c:v>
+                  <c:v>44.6725670908738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.659811524010003</c:v>
+                  <c:v>37.65981152401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.499917647785097</c:v>
+                  <c:v>51.4999176477851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.211959358200097</c:v>
+                  <c:v>52.2119593582001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.552587773404298</c:v>
+                  <c:v>51.5525877734043</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.650909394209798</c:v>
+                  <c:v>49.6509093942098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.729654241807197</c:v>
+                  <c:v>46.7296542418072</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.128523078451899</c:v>
+                  <c:v>49.1285230784519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.642482917127801</c:v>
+                  <c:v>46.6424829171278</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.659943553630399</c:v>
+                  <c:v>44.6599435536304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.006843350357997</c:v>
+                  <c:v>47.006843350358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.881967917443298</c:v>
+                  <c:v>49.8819679174433</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.195314174492097</c:v>
+                  <c:v>44.1953141744921</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.420503166828603</c:v>
+                  <c:v>53.4205031668286</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.471126531096402</c:v>
+                  <c:v>50.4711265310964</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.686543311333502</c:v>
+                  <c:v>46.6865433113335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.723554908767703</c:v>
+                  <c:v>52.7235549087677</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.877403409375901</c:v>
+                  <c:v>62.8774034093759</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.888379155550901</c:v>
+                  <c:v>49.8883791555509</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.506036617517701</c:v>
+                  <c:v>51.5060366175177</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53.218467410499798</c:v>
+                  <c:v>53.2184674104998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.217216910398001</c:v>
+                  <c:v>53.217216910398</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.619437189589497</c:v>
+                  <c:v>53.6194371895895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49.735462058580701</c:v>
+                  <c:v>49.7354620585807</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.214936005120101</c:v>
+                  <c:v>48.2149360051201</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56.683406269465003</c:v>
+                  <c:v>56.683406269465</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>50.006298604836402</c:v>
+                  <c:v>50.0062986048364</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53.738240049274403</c:v>
+                  <c:v>53.7382400492744</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>49.847795413108003</c:v>
+                  <c:v>49.847795413108</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>49.6972509607387</c:v>
@@ -1442,94 +1446,94 @@
                   <c:v>49.994340443812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50.001950076139103</c:v>
+                  <c:v>50.0019500761391</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51.355104773774798</c:v>
+                  <c:v>51.3551047737748</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.955711416408803</c:v>
+                  <c:v>49.9557114164088</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>50.004162644810101</c:v>
+                  <c:v>50.0041626448101</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.519679962326897</c:v>
+                  <c:v>50.5196799623269</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>49.9746696258686</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46.535381309219503</c:v>
+                  <c:v>46.5353813092195</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>50.311942180973702</c:v>
+                  <c:v>50.3119421809737</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50.461083318865498</c:v>
+                  <c:v>50.4610833188655</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49.968791461603999</c:v>
+                  <c:v>49.968791461604</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>62.820082508551202</c:v>
+                  <c:v>62.8200825085512</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44.602501867556597</c:v>
+                  <c:v>44.6025018675566</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>45.754950125967703</c:v>
+                  <c:v>45.7549501259677</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>55.259519014481299</c:v>
+                  <c:v>55.2595190144813</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>71.499057057537698</c:v>
+                  <c:v>71.4990570575377</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40.749562346700301</c:v>
+                  <c:v>40.7495623467003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51.467192193015997</c:v>
+                  <c:v>51.467192193016</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>74.940627790938095</c:v>
+                  <c:v>74.9406277909381</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>26.8312110777733</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50.000970371297697</c:v>
+                  <c:v>50.0009703712977</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>50.067029586797602</c:v>
+                  <c:v>50.0670295867976</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49.593899846215798</c:v>
+                  <c:v>49.5938998462158</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>51.409337202493298</c:v>
+                  <c:v>51.4093372024933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,244 +1545,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,7 +1809,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35"/>
+            <c:forward val="35.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1816,244 +1820,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>59.426733013162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.311683118292898</c:v>
+                  <c:v>50.3116831182929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.917145794139699</c:v>
+                  <c:v>49.9171457941397</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50.0901423808658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.967880248958203</c:v>
+                  <c:v>50.9678802489582</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50.5021087404889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.168739074679898</c:v>
+                  <c:v>48.1687390746799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.183089639559299</c:v>
+                  <c:v>52.1830896395593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.899059486204301</c:v>
+                  <c:v>53.8990594862043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.817015438544402</c:v>
+                  <c:v>52.8170154385444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.003075657342201</c:v>
+                  <c:v>47.0030756573422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.292865597027799</c:v>
+                  <c:v>50.2928655970278</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>50.2088818026862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.799881097554703</c:v>
+                  <c:v>51.7998810975547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.658062064277097</c:v>
+                  <c:v>50.6580620642771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.729906867161198</c:v>
+                  <c:v>49.7299068671612</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53.7716294190299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>60.4650614471254</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.998059509380703</c:v>
+                  <c:v>51.9980595093807</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>35.6454390722581</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.643122662358103</c:v>
+                  <c:v>53.6431226623581</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43.324912633468998</c:v>
+                  <c:v>43.324912633469</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.249432193874298</c:v>
+                  <c:v>55.2494321938743</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>50.4161317247043</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.378202061536001</c:v>
+                  <c:v>47.378202061536</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.405853907008201</c:v>
+                  <c:v>52.4058539070082</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49.905285938350097</c:v>
+                  <c:v>49.9052859383501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.460595217013697</c:v>
+                  <c:v>50.4605952170137</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54.802484552942197</c:v>
+                  <c:v>54.8024845529422</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49.877049105547101</c:v>
+                  <c:v>49.8770491055471</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.856653702303603</c:v>
+                  <c:v>50.8566537023036</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.745289149254603</c:v>
+                  <c:v>51.7452891492546</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.295528020101798</c:v>
+                  <c:v>48.2955280201018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.672567090873798</c:v>
+                  <c:v>44.6725670908738</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.659811524010003</c:v>
+                  <c:v>37.65981152401</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.499917647785097</c:v>
+                  <c:v>51.4999176477851</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52.211959358200097</c:v>
+                  <c:v>52.2119593582001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51.552587773404298</c:v>
+                  <c:v>51.5525877734043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.650909394209798</c:v>
+                  <c:v>49.6509093942098</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.729654241807197</c:v>
+                  <c:v>46.7296542418072</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.128523078451899</c:v>
+                  <c:v>49.1285230784519</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.642482917127801</c:v>
+                  <c:v>46.6424829171278</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.659943553630399</c:v>
+                  <c:v>44.6599435536304</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>47.006843350357997</c:v>
+                  <c:v>47.006843350358</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.881967917443298</c:v>
+                  <c:v>49.8819679174433</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.195314174492097</c:v>
+                  <c:v>44.1953141744921</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.420503166828603</c:v>
+                  <c:v>53.4205031668286</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.471126531096402</c:v>
+                  <c:v>50.4711265310964</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.686543311333502</c:v>
+                  <c:v>46.6865433113335</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.723554908767703</c:v>
+                  <c:v>52.7235549087677</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.877403409375901</c:v>
+                  <c:v>62.8774034093759</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.888379155550901</c:v>
+                  <c:v>49.8883791555509</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51.506036617517701</c:v>
+                  <c:v>51.5060366175177</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.218467410499798</c:v>
+                  <c:v>53.2184674104998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.217216910398001</c:v>
+                  <c:v>53.217216910398</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.619437189589497</c:v>
+                  <c:v>53.6194371895895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,244 +2069,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,7 +2333,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35"/>
+            <c:forward val="35.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2340,124 +2344,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.672567090873798</c:v>
+                  <c:v>44.6725670908738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.659811524010003</c:v>
+                  <c:v>37.65981152401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.499917647785097</c:v>
+                  <c:v>51.4999176477851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.211959358200097</c:v>
+                  <c:v>52.2119593582001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.552587773404298</c:v>
+                  <c:v>51.5525877734043</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.650909394209798</c:v>
+                  <c:v>49.6509093942098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.729654241807197</c:v>
+                  <c:v>46.7296542418072</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>47.5228685834334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.128523078451899</c:v>
+                  <c:v>49.1285230784519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.642482917127801</c:v>
+                  <c:v>46.6424829171278</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47.5621862427152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.659943553630399</c:v>
+                  <c:v>44.6599435536304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>39.2583842267249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.006843350357997</c:v>
+                  <c:v>47.006843350358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.881967917443298</c:v>
+                  <c:v>49.8819679174433</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.195314174492097</c:v>
+                  <c:v>44.1953141744921</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.420503166828603</c:v>
+                  <c:v>53.4205031668286</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.471126531096402</c:v>
+                  <c:v>50.4711265310964</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>48.8103305215501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.686543311333502</c:v>
+                  <c:v>46.6865433113335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.723554908767703</c:v>
+                  <c:v>52.7235549087677</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.877403409375901</c:v>
+                  <c:v>62.8774034093759</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.888379155550901</c:v>
+                  <c:v>49.8883791555509</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44.2851097480495</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.506036617517701</c:v>
+                  <c:v>51.5060366175177</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53.218467410499798</c:v>
+                  <c:v>53.2184674104998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.217216910398001</c:v>
+                  <c:v>53.217216910398</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.619437189589497</c:v>
+                  <c:v>53.6194371895895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,124 +2473,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2601,14 +2605,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1543562704"/>
-        <c:axId val="1543576304"/>
+        <c:axId val="2081180576"/>
+        <c:axId val="2081093472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1543562704"/>
+        <c:axId val="2081180576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2628,25 +2632,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1543576304"/>
+        <c:crossAx val="2081093472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1543576304"/>
+        <c:axId val="2081093472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2663,19 +2667,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1543562704"/>
+        <c:crossAx val="2081180576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2689,7 +2695,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2700,7 +2706,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3051,19 +3057,19 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.41254380287230502</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>0.25041659936539001</v>
       </c>
     </row>
-    <row r="5" spans="1:80" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5">
         <f>C4^2</f>
         <v>3.3625201921111181E-2</v>
@@ -3110,7 +3116,7 @@
         <v>6.2708473237726256E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3594,17 +3600,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-0.48921993665840902</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>0.226350335881741</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>C12^2</f>
         <v>5.6505506812268257E-2</v>
@@ -3651,7 +3657,7 @@
         <v>5.1234474553776964E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>49.999947937879298</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4135,17 +4141,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-0.32642847827635302</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>0.20174583837198901</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>C20^2</f>
         <v>3.2473939715739683E-2</v>
@@ -4192,7 +4198,7 @@
         <v>4.0701383300416713E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>51.409337202493298</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50</v>
       </c>
@@ -4676,17 +4682,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4703,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.11302868985642101</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>0.21152970594460399</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>C28^2</f>
         <v>3.6471466135014853E-3</v>
@@ -4733,7 +4739,7 @@
         <v>4.4744816497010634E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4975,7 +4981,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5217,17 +5223,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-0.48184987815503499</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>0.25817210262297602</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C37">
         <f>C36^2</f>
         <v>8.3971209808846717E-2</v>
@@ -5274,7 +5280,7 @@
         <v>6.6652834572768466E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>53.619437189589497</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50</v>
       </c>
@@ -5520,11 +5526,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5532,13 +5533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20.75" customWidth="1"/>
+    <col min="1" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
